--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_194.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_194.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04264705882352941</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['Db', 'Ab:7', 'Db'], ['Ab', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[['F/A', 'C:7/G', 'F/A'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:47.340000', '0:00:49.580000'), ('0:00:22.770000', '0:00:26.130000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:04:29.320000', '0:04:31.320000'), ('0:04:10.300000', '0:04:12.760000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06941489361702127</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'E', 'A']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.942789, 11.54034)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(35.758662, 46.81136)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1547619047619048</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09601873536299765</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Bb'], ['Bb', 'F', 'Bb']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(15.64, 24.28), (62.26, 64.58), (0.78, 19.18)]</t>
+          <t>[['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(48.170328, 55.589104), (49.981485, 59.292687), (26.041712, 37.10602)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:33.920000', '0:00:36.840000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:43.560000', '0:00:48.100000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_184</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1626984126984127</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.26, 19.34)]</t>
+          <t>[['A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:57.673129', '0:01:03.489727')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:07.605000', '0:00:11.853000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2128623188405797</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G/3', 'C', 'G/3']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(217.493, 223.713)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(130.528, 132.444)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:14.500000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(65.64, 70.54)]</t>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>isophonics_218</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(22.5, 27.52), (21.94, 25.36), (243.44, 246.98), (11.82, 16.4)]</t>
+          <t>[['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (8.3, 12.96), (41.7, 57.94), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:05.776000', '0:00:09.009000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:11.337709', '0:00:19.847823')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(63.88, 74.94)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(2.46, 17.16)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1257352941176471</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.824512)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:07.100000', '0:00:18.300000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1231527093596059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7'], ['Db:maj', 'Ab/3', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['G#:maj/C', 'D#:maj/A#', 'A#:7']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053), (13.159, 16.555)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(65.78, 74.48), (64.28, 67.38)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(88.76, 98.3)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.86, 5.14)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09646739130434782</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(19.000294, 29.309954)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.147562582345191</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(66.93, 74.44)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.2, 19.54)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min/C', 'D:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(95.904784, 104.577437)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.02, 8.7)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_27</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08928571428571427</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A/b7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.173061, 41.86195)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.23, 3.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
